--- a/词云与疫情地图/data.xlsx
+++ b/词云与疫情地图/data.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16688</t>
+          <t>16704</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12471</t>
+          <t>12478</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -702,22 +702,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12153</t>
+          <t>12156</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>506</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>506</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>747</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-19</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1222,37 +1222,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>715</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>456</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1482,22 +1482,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>132</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1586,22 +1586,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-3</t>
         </is>
       </c>
     </row>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1742,22 +1742,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>602</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2054,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>68311</t>
+          <t>68315</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2215,17 +2215,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2303,27 +2303,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>489484</t>
+          <t>496584</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>413740</t>
+          <t>424220</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71724</t>
+          <t>68287</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>7174</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>742438</t>
+          <t>742567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>737481</t>
+          <t>737656</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2399,27 +2399,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10043</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>83291</t>
+          <t>84503</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75733</t>
+          <t>76940</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1209</t>
         </is>
       </c>
     </row>
@@ -2463,22 +2463,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>524638</t>
+          <t>525403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19146</t>
+          <t>19157</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>500701</t>
+          <t>501520</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2495,27 +2495,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>48801</t>
+          <t>48901</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29965</t>
+          <t>30070</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16048</t>
+          <t>16038</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2559,27 +2559,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>183744</t>
+          <t>183810</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>178777</t>
+          <t>178851</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>2195</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2591,27 +2591,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>194904</t>
+          <t>195098</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>191602</t>
+          <t>191781</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -2623,27 +2623,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>977031</t>
+          <t>977714</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12802</t>
+          <t>12814</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>944485</t>
+          <t>945529</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19744</t>
+          <t>19371</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>704</t>
         </is>
       </c>
     </row>
@@ -2655,27 +2655,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8943837</t>
+          <t>8964711</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>78215</t>
+          <t>78407</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8486689</t>
+          <t>8516522</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>378933</t>
+          <t>369782</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>20033</t>
+          <t>22687</t>
         </is>
       </c>
     </row>
@@ -2687,12 +2687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>384288</t>
+          <t>384626</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69009</t>
+          <t>69344</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>138157</t>
+          <t>138733</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>605</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13185</t>
+          <t>13758</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>619</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15244</t>
+          <t>15301</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15028</t>
+          <t>15088</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1578288</t>
+          <t>1578550</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2793,17 +2793,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1543204</t>
+          <t>1543491</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>7043</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>277</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>92501</t>
+          <t>92629</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2825,17 +2825,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90401</t>
+          <t>90485</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2879,27 +2879,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>432602</t>
+          <t>432921</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>424419</t>
+          <t>424754</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>337</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2943,27 +2943,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>988159</t>
+          <t>993339</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11817</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>911905</t>
+          <t>916406</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>64437</t>
+          <t>65083</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12203</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2975,27 +2975,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4258340</t>
+          <t>4258560</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>143909</t>
+          <t>143918</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4109068</t>
+          <t>4109364</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5278</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>264</t>
         </is>
       </c>
     </row>
@@ -3007,27 +3007,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>341468</t>
+          <t>341768</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7728</t>
+          <t>7747</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>322814</t>
+          <t>323016</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10926</t>
+          <t>11005</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>410</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>321</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1210</t>
         </is>
       </c>
     </row>
@@ -3103,27 +3103,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>875806</t>
+          <t>879368</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12519</t>
+          <t>12582</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>817963</t>
+          <t>822108</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>45324</t>
+          <t>44678</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
@@ -3135,27 +3135,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1287703</t>
+          <t>1288053</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28793</t>
+          <t>28803</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1247066</t>
+          <t>1249421</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11844</t>
+          <t>9829</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>304654</t>
+          <t>304679</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3177,17 +3177,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>300057</t>
+          <t>300066</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>500</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>277894</t>
+          <t>277935</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3241,17 +3241,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>276165</t>
+          <t>276194</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>347</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3263,27 +3263,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>413555</t>
+          <t>413588</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>410768</t>
+          <t>410786</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>336</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>606</t>
         </is>
       </c>
     </row>
@@ -3327,27 +3327,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>681332</t>
+          <t>683326</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8795</t>
+          <t>8804</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>637834</t>
+          <t>638065</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>34703</t>
+          <t>36457</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>1707</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1347474</t>
+          <t>1348486</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3369,17 +3369,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1333483</t>
+          <t>1334133</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5781</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1207</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3309</t>
         </is>
       </c>
     </row>
@@ -3423,27 +3423,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>34656822</t>
+          <t>34666241</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>473952</t>
+          <t>474111</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>34089137</t>
+          <t>34097388</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93733</t>
+          <t>94742</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6822</t>
+          <t>8439</t>
         </is>
       </c>
     </row>
@@ -3455,27 +3455,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2835593</t>
+          <t>2835996</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>49761</t>
+          <t>49936</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2773322</t>
+          <t>2773891</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12510</t>
+          <t>12169</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>248</t>
         </is>
       </c>
     </row>
@@ -3487,27 +3487,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>569171</t>
+          <t>569928</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14505</t>
+          <t>14533</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>543111</t>
+          <t>543467</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11555</t>
+          <t>11928</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>794</t>
         </is>
       </c>
     </row>
@@ -3519,22 +3519,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>120300</t>
+          <t>120312</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2971</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>116655</t>
+          <t>116668</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>670</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3551,27 +3551,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>823357</t>
+          <t>823554</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11547</t>
+          <t>11549</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>805571</t>
+          <t>805900</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -3583,27 +3583,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1352122</t>
+          <t>1367433</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>26930</t>
+          <t>27186</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1036393</t>
+          <t>1050979</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>288799</t>
+          <t>289268</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13840</t>
+          <t>14599</t>
         </is>
       </c>
     </row>
@@ -3615,27 +3615,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2667999</t>
+          <t>2673019</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30718</t>
+          <t>30746</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2576870</t>
+          <t>2581395</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>60411</t>
+          <t>60878</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4262</t>
+          <t>4965</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -3679,27 +3679,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>270588</t>
+          <t>271297</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>261638</t>
+          <t>262751</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8179</t>
+          <t>7772</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>715</t>
         </is>
       </c>
     </row>
@@ -3711,27 +3711,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2152384</t>
+          <t>2156587</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21033</t>
+          <t>21082</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2067149</t>
+          <t>2075088</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>64202</t>
+          <t>60417</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>3618</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19706</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17421</t>
+          <t>17687</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12147</t>
+          <t>12230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158838</t>
+          <t>159034</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>649</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -3954,27 +3954,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>202295</t>
+          <t>202641</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>192967</t>
+          <t>193533</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>393</t>
         </is>
       </c>
     </row>
@@ -3986,27 +3986,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>707885</t>
+          <t>709537</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29163</t>
+          <t>29279</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>579059</t>
+          <t>581749</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99663</t>
+          <t>98509</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>2299</t>
         </is>
       </c>
     </row>
@@ -4018,27 +4018,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>367339</t>
+          <t>367948</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9270</t>
+          <t>9293</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>351581</t>
+          <t>352478</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>588</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -4082,27 +4082,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>748969</t>
+          <t>757492</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15095</t>
+          <t>15179</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>616734</t>
+          <t>626808</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>117140</t>
+          <t>115505</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>9425</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4146,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1267112</t>
+          <t>1268787</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11995</t>
+          <t>12036</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1216373</t>
+          <t>1218981</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>38744</t>
+          <t>37770</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1675</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7402</t>
+          <t>7436</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4210,27 +4210,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5050</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>416</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>641</t>
         </is>
       </c>
     </row>
@@ -4274,27 +4274,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1168728</t>
+          <t>1176038</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>36048</t>
+          <t>36263</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>948385</t>
+          <t>955248</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>184295</t>
+          <t>184527</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>6849</t>
         </is>
       </c>
     </row>
@@ -4306,27 +4306,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>434679</t>
+          <t>436366</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5354</t>
+          <t>5365</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>403331</t>
+          <t>405991</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25994</t>
+          <t>25010</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1886</t>
         </is>
       </c>
     </row>
@@ -4338,27 +4338,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3732589</t>
+          <t>3760048</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>86796</t>
+          <t>87357</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3194731</t>
+          <t>3211558</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>451062</t>
+          <t>461133</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19369</t>
+          <t>28549</t>
         </is>
       </c>
     </row>
@@ -4370,27 +4370,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3519981</t>
+          <t>3532357</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>89436</t>
+          <t>89901</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3109423</t>
+          <t>3133970</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>321122</t>
+          <t>308486</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8655</t>
+          <t>9371</t>
         </is>
       </c>
     </row>
@@ -4402,27 +4402,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>259215</t>
+          <t>260008</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>243751</t>
+          <t>244974</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11139</t>
+          <t>10685</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>796</t>
         </is>
       </c>
     </row>
@@ -4434,27 +4434,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1172420</t>
+          <t>1177706</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18572</t>
+          <t>18587</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1093264</t>
+          <t>1096285</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>60584</t>
+          <t>62834</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5633</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -4498,27 +4498,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2282212</t>
+          <t>2298441</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34034</t>
+          <t>34129</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1963455</t>
+          <t>1972936</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>284723</t>
+          <t>291376</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15599</t>
+          <t>19546</t>
         </is>
       </c>
     </row>
@@ -4530,27 +4530,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>602726</t>
+          <t>606852</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>5788</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>465420</t>
+          <t>468512</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>131599</t>
+          <t>132552</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>5565</t>
         </is>
       </c>
     </row>
@@ -4562,27 +4562,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>91908</t>
+          <t>92574</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>889</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85792</t>
+          <t>85958</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3942</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4636,17 +4636,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18896</t>
+          <t>19052</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4668,17 +4668,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17538</t>
+          <t>17614</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1756</t>
         </is>
       </c>
     </row>
@@ -4722,27 +4722,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>484537</t>
+          <t>486224</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>449424</t>
+          <t>451231</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28212</t>
+          <t>28073</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2079</t>
         </is>
       </c>
     </row>
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2193044</t>
+          <t>2192972</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>596006</t>
+          <t>596078</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>18062</t>
         </is>
       </c>
     </row>
@@ -4786,27 +4786,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>226304</t>
+          <t>226858</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>210213</t>
+          <t>211051</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14255</t>
+          <t>13969</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>467</t>
         </is>
       </c>
     </row>
@@ -4828,17 +4828,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>459462</t>
+          <t>459455</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>66776</t>
+          <t>66783</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>6629</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1279</t>
         </is>
       </c>
     </row>
@@ -4882,27 +4882,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>217775</t>
+          <t>218194</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7674</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>204474</t>
+          <t>204685</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5627</t>
+          <t>5821</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>794</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>294754</t>
+          <t>300013</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4929,12 +4929,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>204668</t>
+          <t>209927</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>5143</t>
         </is>
       </c>
     </row>
@@ -4946,27 +4946,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>978402</t>
+          <t>984301</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18815</t>
+          <t>18901</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>889506</t>
+          <t>896009</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>70081</t>
+          <t>69391</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12181</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11708</t>
+          <t>11718</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>194276</t>
+          <t>194266</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9867</t>
+          <t>12344</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>4751</t>
         </is>
       </c>
     </row>
@@ -5042,27 +5042,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1212999</t>
+          <t>1217436</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12979</t>
+          <t>13011</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1109972</t>
+          <t>1119866</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>90048</t>
+          <t>84559</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>5663</t>
         </is>
       </c>
     </row>
@@ -5074,27 +5074,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1879784</t>
+          <t>1898498</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1395359</t>
+          <t>1403052</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>457065</t>
+          <t>468030</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>41439</t>
+          <t>10878</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43808</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
@@ -5170,27 +5170,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9895597</t>
+          <t>9925806</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>284823</t>
+          <t>286004</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8602067</t>
+          <t>8637861</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1008707</t>
+          <t>1001941</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>31096</t>
+          <t>30752</t>
         </is>
       </c>
     </row>
@@ -5202,27 +5202,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10560341</t>
+          <t>10610958</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>145826</t>
+          <t>145987</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9300698</t>
+          <t>9340390</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1113817</t>
+          <t>1124581</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>50850</t>
+          <t>45102</t>
         </is>
       </c>
     </row>
@@ -5234,27 +5234,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5134318</t>
+          <t>5152264</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>134386</t>
+          <t>134472</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4759038</t>
+          <t>4768578</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>240894</t>
+          <t>249214</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9494</t>
+          <t>15742</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>197476</t>
+          <t>199257</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>150081</t>
+          <t>151851</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1296</t>
         </is>
       </c>
     </row>
@@ -5298,12 +5298,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6297345</t>
+          <t>6339593</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>104639</t>
+          <t>104932</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>967006</t>
+          <t>1008961</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>37305</t>
+          <t>70665</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5330,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7987591</t>
+          <t>8048931</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>119899</t>
+          <t>120032</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7211059</t>
+          <t>7231292</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>656633</t>
+          <t>697607</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11308</t>
+          <t>59019</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4554</t>
+          <t>4556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5455,17 +5455,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12826</t>
+          <t>12842</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5519,17 +5519,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12463</t>
+          <t>12516</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>62015</t>
+          <t>62053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>920</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6444</t>
+          <t>6445</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5701,27 +5701,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18112</t>
+          <t>18253</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>621</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15345</t>
+          <t>15360</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -5733,27 +5733,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>376378</t>
+          <t>376873</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>359733</t>
+          <t>360908</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11127</t>
+          <t>10436</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>509</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>152120</t>
+          <t>152326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>149575</t>
+          <t>149583</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>802</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5807,17 +5807,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7311</t>
+          <t>7322</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>65301</t>
+          <t>65332</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>63351</t>
+          <t>63373</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -5925,27 +5925,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>145632</t>
+          <t>150628</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>129006</t>
+          <t>129095</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11908</t>
+          <t>16813</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>4031</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38460</t>
+          <t>38470</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>37984</t>
+          <t>37995</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>7119</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5999,17 +5999,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6751</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22251</t>
+          <t>22310</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6063,17 +6063,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20511</t>
+          <t>20559</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13508</t>
+          <t>13509</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13294</t>
+          <t>13295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6245,12 +6245,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26270</t>
+          <t>26309</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>734</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25357</t>
+          <t>25392</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5829</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -6469,27 +6469,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>130051</t>
+          <t>130230</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3574</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>125540</t>
+          <t>125609</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -6501,12 +6501,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100449</t>
+          <t>100464</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6516,12 +6516,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>53584</t>
+          <t>53598</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>48358</t>
+          <t>49253</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45284</t>
+          <t>45296</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>507</t>
         </is>
       </c>
     </row>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39621</t>
+          <t>39669</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6575,17 +6575,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>38058</t>
+          <t>38124</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>701</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -6597,27 +6597,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>44170</t>
+          <t>44406</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>35786</t>
+          <t>36009</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>5196</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -6661,27 +6661,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>372462</t>
+          <t>372588</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6808</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>349846</t>
+          <t>349978</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15808</t>
+          <t>15794</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>255544</t>
+          <t>255652</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6703,17 +6703,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>248452</t>
+          <t>248473</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37511</t>
+          <t>37551</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>33424</t>
+          <t>33761</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2675</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>61844</t>
+          <t>61857</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60890</t>
+          <t>60909</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>242</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58858</t>
+          <t>59175</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6868,12 +6868,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6815</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>334</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>26326</t>
+          <t>26350</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25929</t>
+          <t>25934</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>107148</t>
+          <t>107549</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1804</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6981,27 +6981,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3051222</t>
+          <t>3071064</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>90002</t>
+          <t>90038</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2864648</t>
+          <t>2867966</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>96572</t>
+          <t>113060</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6381</t>
+          <t>13147</t>
         </is>
       </c>
     </row>
@@ -7013,27 +7013,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>718696</t>
+          <t>718866</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25407</t>
+          <t>25413</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>691923</t>
+          <t>692068</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -7077,27 +7077,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>950801</t>
+          <t>950946</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14788</t>
+          <t>14792</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>933416</t>
+          <t>933658</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2496</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>214896</t>
+          <t>215164</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>207495</t>
+          <t>207520</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>4664</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -7141,27 +7141,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>364922</t>
+          <t>365831</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20821</t>
+          <t>20877</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>303368</t>
+          <t>304156</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>40733</t>
+          <t>40798</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>889</t>
         </is>
       </c>
     </row>
@@ -7173,27 +7173,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>212047</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>6122</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>145511</t>
+          <t>145677</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>60234</t>
+          <t>60248</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>35662</t>
+          <t>35835</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7522,17 +7522,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34645</t>
+          <t>34917</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12321</t>
+          <t>12343</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7554,17 +7554,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11825</t>
+          <t>11841</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>46324</t>
+          <t>46332</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12188</t>
+          <t>12196</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12516</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7650,17 +7650,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6463</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -7672,27 +7672,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>222260</t>
+          <t>223914</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>202159</t>
+          <t>205461</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18029</t>
+          <t>16371</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1708</t>
         </is>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7930,12 +7930,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3107</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7957,12 +7957,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3055</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7979,27 +7979,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30888</t>
+          <t>30930</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29342</t>
+          <t>29465</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6142</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8021,17 +8021,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5744</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>390</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -8075,27 +8075,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25638</t>
+          <t>25691</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>754</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21746</t>
+          <t>21885</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13031</t>
+          <t>13030</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -8171,27 +8171,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26306</t>
+          <t>26433</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23679</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2355</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8218,12 +8218,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>315</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7724</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8309,17 +8309,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -8331,27 +8331,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16484</t>
+          <t>16505</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16118</t>
+          <t>16136</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17502</t>
+          <t>17517</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8373,17 +8373,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17220</t>
+          <t>17228</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13060</t>
+          <t>13067</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8405,17 +8405,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12666</t>
+          <t>12682</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>4151</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8491,27 +8491,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>620435</t>
+          <t>620853</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15999</t>
+          <t>16008</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>603346</t>
+          <t>603756</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>544</t>
         </is>
       </c>
     </row>
@@ -8523,27 +8523,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>76601</t>
+          <t>77482</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>61396</t>
+          <t>61931</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12902</t>
+          <t>13231</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>666</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>963269</t>
+          <t>963347</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8565,17 +8565,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>954427</t>
+          <t>954572</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>464</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>378397</t>
+          <t>378423</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8597,17 +8597,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>122374</t>
+          <t>122472</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>245607</t>
+          <t>245535</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8629,17 +8629,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8683,27 +8683,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>91554</t>
+          <t>91578</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>63223</t>
+          <t>63260</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>25920</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -8715,27 +8715,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>479563</t>
+          <t>479901</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7379</t>
+          <t>7381</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>469189</t>
+          <t>469431</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>567706</t>
+          <t>567824</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8789,17 +8789,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>556781</t>
+          <t>557620</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>409002</t>
+          <t>409232</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8821,17 +8821,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>403257</t>
+          <t>403413</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>254</t>
         </is>
       </c>
     </row>
@@ -8843,27 +8843,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3905319</t>
+          <t>3908534</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>295601</t>
+          <t>295893</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3262422</t>
+          <t>3264585</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>347296</t>
+          <t>348056</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>3304</t>
         </is>
       </c>
     </row>
@@ -8875,27 +8875,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1815215</t>
+          <t>1818742</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>29827</t>
+          <t>29852</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1756185</t>
+          <t>1758980</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>29203</t>
+          <t>29910</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>2971</t>
         </is>
       </c>
     </row>
@@ -8907,27 +8907,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>50270136</t>
+          <t>50422410</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>812205</t>
+          <t>813904</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>39742867</t>
+          <t>39815866</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9715064</t>
+          <t>9792640</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>178780</t>
+          <t>120811</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>38261</t>
+          <t>38333</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9032,17 +9032,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36319</t>
+          <t>36362</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>962</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51083</t>
+          <t>51124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9069,12 +9069,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20325</t>
+          <t>20366</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -9086,27 +9086,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>401340</t>
+          <t>401640</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>393099</t>
+          <t>393258</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -9118,27 +9118,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>435825</t>
+          <t>436178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5208</t>
+          <t>5216</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>423293</t>
+          <t>423686</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7324</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>364</t>
         </is>
       </c>
     </row>
@@ -9150,27 +9150,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>546155</t>
+          <t>547892</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19264</t>
+          <t>19276</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>499564</t>
+          <t>500575</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27327</t>
+          <t>28041</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1489</t>
         </is>
       </c>
     </row>
@@ -9182,12 +9182,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46261</t>
+          <t>46304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9197,12 +9197,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34678</t>
+          <t>34719</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -9214,27 +9214,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>463479</t>
+          <t>463522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16484</t>
+          <t>16488</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>446304</t>
+          <t>446372</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>662</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -9246,27 +9246,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5084466</t>
+          <t>5086381</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>128874</t>
+          <t>128929</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4925444</t>
+          <t>4927104</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30148</t>
+          <t>30348</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1704</t>
         </is>
       </c>
     </row>
@@ -9278,12 +9278,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2246633</t>
+          <t>2248447</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>201450</t>
+          <t>201490</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9293,12 +9293,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>324518</t>
+          <t>326292</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1487</t>
         </is>
       </c>
     </row>
@@ -9310,27 +9310,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5346242</t>
+          <t>5348123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>116703</t>
+          <t>116708</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5205534</t>
+          <t>5206911</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24005</t>
+          <t>24504</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2477</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
@@ -9352,17 +9352,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1672907</t>
+          <t>1672901</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65151</t>
+          <t>65157</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1387</t>
         </is>
       </c>
     </row>
@@ -9374,12 +9374,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>529456</t>
+          <t>530126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33488</t>
+          <t>33494</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>52088</t>
+          <t>52752</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -9406,27 +9406,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22157726</t>
+          <t>22167781</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>616067</t>
+          <t>616298</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21386271</t>
+          <t>21399316</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>155388</t>
+          <t>152167</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>10250</t>
         </is>
       </c>
     </row>
@@ -9572,27 +9572,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8943837</t>
+          <t>8964711</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>78215</t>
+          <t>78407</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8486689</t>
+          <t>8516522</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>378933</t>
+          <t>369782</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20033</t>
+          <t>22687</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3309</t>
         </is>
       </c>
     </row>
@@ -9646,17 +9646,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2193044</t>
+          <t>2192972</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>596006</t>
+          <t>596078</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>18062</t>
         </is>
       </c>
     </row>
@@ -9668,27 +9668,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1879784</t>
+          <t>1898498</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1395359</t>
+          <t>1403052</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>457065</t>
+          <t>468030</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>41439</t>
+          <t>10878</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43808</t>
         </is>
       </c>
     </row>
@@ -9732,27 +9732,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10560341</t>
+          <t>10610958</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>145826</t>
+          <t>145987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9300698</t>
+          <t>9340390</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1113817</t>
+          <t>1124581</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50850</t>
+          <t>45102</t>
         </is>
       </c>
     </row>
@@ -9764,27 +9764,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5134318</t>
+          <t>5152264</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>134386</t>
+          <t>134472</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4759038</t>
+          <t>4768578</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>240894</t>
+          <t>249214</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9494</t>
+          <t>15742</t>
         </is>
       </c>
     </row>
@@ -9796,12 +9796,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6297345</t>
+          <t>6339593</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>104639</t>
+          <t>104932</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9811,12 +9811,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>967006</t>
+          <t>1008961</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37305</t>
+          <t>70665</t>
         </is>
       </c>
     </row>
@@ -9828,27 +9828,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7987591</t>
+          <t>8048931</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>119899</t>
+          <t>120032</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7211059</t>
+          <t>7231292</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>656633</t>
+          <t>697607</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11308</t>
+          <t>59019</t>
         </is>
       </c>
     </row>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50270136</t>
+          <t>50422410</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>812205</t>
+          <t>813904</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39742867</t>
+          <t>39815866</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9715064</t>
+          <t>9792640</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>178780</t>
+          <t>120811</t>
         </is>
       </c>
     </row>
